--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="200 vs 0 non TMR" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -653,6 +654,18 @@
   </si>
   <si>
     <t>results_w-1\tsengTMR.blif.txt</t>
+  </si>
+  <si>
+    <t>STD.Dev</t>
+  </si>
+  <si>
+    <t>STD.Dev Minimum Channel Width</t>
+  </si>
+  <si>
+    <t>STD.Dev 200 Channel Width</t>
+  </si>
+  <si>
+    <t>STD.Dev 60 Channel Width</t>
   </si>
 </sst>
 </file>
@@ -1755,11 +1768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118308864"/>
-        <c:axId val="118309440"/>
+        <c:axId val="67345728"/>
+        <c:axId val="89546752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118308864"/>
+        <c:axId val="67345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,12 +1806,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118309440"/>
+        <c:crossAx val="89546752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118309440"/>
+        <c:axId val="89546752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1849,764 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118308864"/>
+        <c:crossAx val="67345728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3690</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4521</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4574</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4575</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5018</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5294</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5796</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6042</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6177</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8365</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10733</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11116</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13765</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18232</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>6.2199999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1700000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0199999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3100000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0899999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3700000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4400000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8099999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3400000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9499999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6399999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0399999999999995E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3400000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0799999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0600000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4600000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2599999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9099999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0600000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6500000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4300000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3300000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7299999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6800000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3599999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1899999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6500000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.7999999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6499999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3199999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8499999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.7199999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.11E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6799999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.5700000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.6199999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4600000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.72E-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3700000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.6899999999999994E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110019136"/>
+        <c:axId val="110018560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110019136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number of Combinational Logic Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110018560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110018560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Latency( s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110019136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$1:$S$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3690</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4521</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4574</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4575</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5018</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5294</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5796</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6042</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6177</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8365</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10733</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11116</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13765</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18232</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$1:$T$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>6.1499999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3699999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7100000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2400000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2899999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5700000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0899999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0300000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3699999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8399999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9E-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5799999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7399999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1499999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.04E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5300000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9500000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.52E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2700000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6500000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4300000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4800000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.41E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8200000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3599999999999998E-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2599999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8499999999999999E-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6E-9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4000000000000008E-9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.3199999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9900000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0099999999999993E-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.11E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.54E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.2800000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.6600000000000004E-9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7999999999999997E-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3899999999999996E-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0600000000000001E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110023744"/>
+        <c:axId val="110023168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110023744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> of Combinational Logic Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110023168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110023168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Latency (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110023744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1880,6 +2650,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2178,7 +3013,7 @@
   <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7871,7 +8706,7 @@
         <v>368.64800000000002</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" ref="Z67:Z130" si="2">W68-W67</f>
+        <f t="shared" ref="Z67:Z129" si="2">W68-W67</f>
         <v>1.1399999999999998E-9</v>
       </c>
       <c r="AA67">
@@ -13274,7 +14109,7 @@
         <v>878.42899999999997</v>
       </c>
       <c r="Z133" s="1">
-        <f t="shared" ref="Z131:Z161" si="5">W134-W133</f>
+        <f t="shared" ref="Z133:Z161" si="5">W134-W133</f>
         <v>1.8719900000000003E-9</v>
       </c>
       <c r="AA133">
@@ -15513,10 +16348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17627,6 +18462,103 @@
         <v>3.8534881013356777</v>
       </c>
     </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="e">
+        <f>_xlfn.STDEV.P(B2:B23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" ref="C24:X24" si="1">_xlfn.STDEV.P(C2:C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>14.420327543232192</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>4.7479319309898599E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>3.6418632967438185E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>9.1746141439537118E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.11463856597661197</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>8.673924864414187E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.50254930142937959</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.12784259575363402</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>4.2489966025736112E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>8.1232112165899786E-3</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>9.1655368042434071E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>0.10783442606136133</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>0.58627316337149371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17634,10 +18566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18177,34 +19109,6 @@
         <f>results!P91/results!P90</f>
         <v>1</v>
       </c>
-      <c r="Q6" t="e">
-        <f>results!Q91/results!Q90</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" t="e">
-        <f>results!R91/results!R90</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" t="e">
-        <f>results!S91/results!S90</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" t="e">
-        <f>results!T91/results!T90</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" t="e">
-        <f>results!U91/results!U90</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V6" t="e">
-        <f>results!V91/results!V90</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" t="e">
-        <f>results!W91/results!W90</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="X6">
         <f>results!X91/results!X90</f>
         <v>14.363298225507876</v>
@@ -18667,34 +19571,6 @@
         <f>results!P101/results!P100</f>
         <v>1</v>
       </c>
-      <c r="Q11" t="e">
-        <f>results!Q101/results!Q100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" t="e">
-        <f>results!R101/results!R100</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S11" t="e">
-        <f>results!S101/results!S100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" t="e">
-        <f>results!T101/results!T100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" t="e">
-        <f>results!U101/results!U100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" t="e">
-        <f>results!V101/results!V100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" t="e">
-        <f>results!W101/results!W100</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="X11">
         <f>results!X101/results!X100</f>
         <v>1.7543589462959055E-2</v>
@@ -18765,34 +19641,6 @@
         <f>results!P103/results!P102</f>
         <v>1</v>
       </c>
-      <c r="Q12">
-        <f>results!Q103/results!Q102</f>
-        <v>0</v>
-      </c>
-      <c r="R12" t="e">
-        <f>results!R103/results!R102</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S12">
-        <f>results!S103/results!S102</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f>results!T103/results!T102</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>results!U103/results!U102</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>results!V103/results!V102</f>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f>results!W103/results!W102</f>
-        <v>0</v>
-      </c>
       <c r="X12">
         <f>results!X103/results!X102</f>
         <v>5.5024604476427319</v>
@@ -18863,34 +19711,6 @@
         <f>results!P105/results!P104</f>
         <v>1</v>
       </c>
-      <c r="Q13">
-        <f>results!Q105/results!Q104</f>
-        <v>0</v>
-      </c>
-      <c r="R13" t="e">
-        <f>results!R105/results!R104</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S13">
-        <f>results!S105/results!S104</f>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f>results!T105/results!T104</f>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f>results!U105/results!U104</f>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f>results!V105/results!V104</f>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f>results!W105/results!W104</f>
-        <v>0</v>
-      </c>
       <c r="X13">
         <f>results!X105/results!X104</f>
         <v>6.8971023944843006</v>
@@ -19059,34 +19879,6 @@
         <f>results!P109/results!P108</f>
         <v>1</v>
       </c>
-      <c r="Q15" t="e">
-        <f>results!Q109/results!Q108</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" t="e">
-        <f>results!R109/results!R108</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S15" t="e">
-        <f>results!S109/results!S108</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" t="e">
-        <f>results!T109/results!T108</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" t="e">
-        <f>results!U109/results!U108</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" t="e">
-        <f>results!V109/results!V108</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W15" t="e">
-        <f>results!W109/results!W108</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="X15">
         <f>results!X109/results!X108</f>
         <v>6.8502493066395882</v>
@@ -19549,34 +20341,6 @@
         <f>results!P119/results!P118</f>
         <v>1</v>
       </c>
-      <c r="Q20">
-        <f>results!Q119/results!Q118</f>
-        <v>0</v>
-      </c>
-      <c r="R20" t="e">
-        <f>results!R119/results!R118</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S20">
-        <f>results!S119/results!S118</f>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f>results!T119/results!T118</f>
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f>results!U119/results!U118</f>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <f>results!V119/results!V118</f>
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <f>results!W119/results!W118</f>
-        <v>0</v>
-      </c>
       <c r="X20">
         <f>results!X119/results!X118</f>
         <v>7.4898756247820533</v>
@@ -19744,37 +20508,134 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q23" t="e">
+      <c r="Q23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" t="e">
+        <v>1.1372243747302695</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" t="e">
+        <v>2.8536750211208108</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" t="e">
+        <v>2.8695737408469699</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" t="e">
+        <v>3.02087889250173</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" t="e">
+        <v>0.97432676010107433</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" t="e">
+        <v>1.2847631871973484</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.1686710258118627</v>
       </c>
       <c r="X23">
         <f t="shared" si="0"/>
         <v>4.4401710987857701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="e">
+        <f>_xlfn.STDEV.P(B2:B23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" ref="C24:X24" si="1">_xlfn.STDEV.P(C2:C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>14.420327543232192</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>4.7479319309898599E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>3.6418632967438185E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0.11616161869030667</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.12672194421604127</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>9.3480654416794443E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0.55263768498304999</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.12720711021023087</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>4.9758910302478254E-2</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>8.5959812821145721E-3</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>8.528942582243558E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>0.10474700311184011</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>2.5888495847588833</v>
       </c>
     </row>
   </sheetData>
@@ -19784,10 +20645,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22090,37 +22951,328 @@
         <f>'60cw'!P23</f>
         <v>1</v>
       </c>
-      <c r="Q25" t="e">
+      <c r="Q25">
         <f>'60cw'!Q23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" t="e">
+        <v>1.1372243747302695</v>
+      </c>
+      <c r="R25">
         <f>'60cw'!R23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" t="e">
+        <v>2.8536750211208108</v>
+      </c>
+      <c r="S25">
         <f>'60cw'!S23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" t="e">
+        <v>2.8695737408469699</v>
+      </c>
+      <c r="T25">
         <f>'60cw'!T23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" t="e">
+        <v>3.02087889250173</v>
+      </c>
+      <c r="U25">
         <f>'60cw'!U23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" t="e">
+        <v>0.97432676010107433</v>
+      </c>
+      <c r="V25">
         <f>'60cw'!V23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" t="e">
+        <v>1.2847631871973484</v>
+      </c>
+      <c r="W25">
         <f>'60cw'!W23</f>
-        <v>#DIV/0!</v>
+        <v>1.1686710258118627</v>
       </c>
       <c r="X25">
         <f>'60cw'!X23</f>
         <v>4.4401710987857701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="e">
+        <f>_xlfn.STDEV.P(B2:B21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" ref="C27:X27" si="1">_xlfn.STDEV.P(C2:C21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>14.736283922869857</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>4.839167540032998E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>3.7231448740039322E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0.12271276692130322</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.13137300774362201</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.10899926554631983</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0.10216612511021422</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0.6322814059851749</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0.13055443513190437</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>4.333694649467297E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.31221622233058366</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0.12507882142242269</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>0.11921084475613188</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>4.0070901057051973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" t="e">
+        <f>'200cw'!B24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" t="e">
+        <f>'200cw'!C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28">
+        <f>'200cw'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>'200cw'!E24</f>
+        <v>14.420327543232192</v>
+      </c>
+      <c r="F28">
+        <f>'200cw'!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="e">
+        <f>'200cw'!G24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" t="e">
+        <f>'200cw'!H24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28">
+        <f>'200cw'!I24</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>'200cw'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>'200cw'!K24</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>'200cw'!L24</f>
+        <v>4.7479319309898599E-2</v>
+      </c>
+      <c r="M28">
+        <f>'200cw'!M24</f>
+        <v>3.6418632967438185E-2</v>
+      </c>
+      <c r="N28">
+        <f>'200cw'!N24</f>
+        <v>9.1746141439537118E-2</v>
+      </c>
+      <c r="O28">
+        <f>'200cw'!O24</f>
+        <v>0.11463856597661197</v>
+      </c>
+      <c r="P28">
+        <f>'200cw'!P24</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>'200cw'!Q24</f>
+        <v>8.673924864414187E-2</v>
+      </c>
+      <c r="R28">
+        <f>'200cw'!R24</f>
+        <v>0.50254930142937959</v>
+      </c>
+      <c r="S28">
+        <f>'200cw'!S24</f>
+        <v>0.12784259575363402</v>
+      </c>
+      <c r="T28">
+        <f>'200cw'!T24</f>
+        <v>4.2489966025736112E-2</v>
+      </c>
+      <c r="U28">
+        <f>'200cw'!U24</f>
+        <v>8.1232112165899786E-3</v>
+      </c>
+      <c r="V28">
+        <f>'200cw'!V24</f>
+        <v>9.1655368042434071E-2</v>
+      </c>
+      <c r="W28">
+        <f>'200cw'!W24</f>
+        <v>0.10783442606136133</v>
+      </c>
+      <c r="X28">
+        <f>'200cw'!X24</f>
+        <v>0.58627316337149371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" t="e">
+        <f>'60cw'!B24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29" t="e">
+        <f>'60cw'!C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29">
+        <f>'60cw'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>'60cw'!E24</f>
+        <v>14.420327543232192</v>
+      </c>
+      <c r="F29">
+        <f>'60cw'!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="e">
+        <f>'60cw'!G24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" t="e">
+        <f>'60cw'!H24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29">
+        <f>'60cw'!I24</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>'60cw'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f>'60cw'!K24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29">
+        <f>'60cw'!L24</f>
+        <v>4.7479319309898599E-2</v>
+      </c>
+      <c r="M29">
+        <f>'60cw'!M24</f>
+        <v>3.6418632967438185E-2</v>
+      </c>
+      <c r="N29">
+        <f>'60cw'!N24</f>
+        <v>0.11616161869030667</v>
+      </c>
+      <c r="O29">
+        <f>'60cw'!O24</f>
+        <v>0.12672194421604127</v>
+      </c>
+      <c r="P29">
+        <f>'60cw'!P24</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>'60cw'!Q24</f>
+        <v>9.3480654416794443E-2</v>
+      </c>
+      <c r="R29">
+        <f>'60cw'!R24</f>
+        <v>0.55263768498304999</v>
+      </c>
+      <c r="S29">
+        <f>'60cw'!S24</f>
+        <v>0.12720711021023087</v>
+      </c>
+      <c r="T29">
+        <f>'60cw'!T24</f>
+        <v>4.9758910302478254E-2</v>
+      </c>
+      <c r="U29">
+        <f>'60cw'!U24</f>
+        <v>8.5959812821145721E-3</v>
+      </c>
+      <c r="V29">
+        <f>'60cw'!V24</f>
+        <v>8.528942582243558E-2</v>
+      </c>
+      <c r="W29">
+        <f>'60cw'!W24</f>
+        <v>0.10474700311184011</v>
+      </c>
+      <c r="X29">
+        <f>'60cw'!X24</f>
+        <v>2.5888495847588833</v>
       </c>
     </row>
   </sheetData>
@@ -24134,11 +25286,11 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <f>D2*D2</f>
+        <f t="shared" ref="E2:E33" si="0">D2*D2</f>
         <v>169</v>
       </c>
       <c r="F2" s="1">
-        <f>D3/1000000</f>
+        <f t="shared" ref="F2:F14" si="1">D3/1000000</f>
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
@@ -24150,11 +25302,11 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <f>D3*D3</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="F3" s="1">
-        <f>D4/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="G3">
@@ -24170,15 +25322,15 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <f>D4*D4</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="F4" s="1">
-        <f>D5/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="0">C4/E4</f>
+        <f t="shared" ref="G4:G67" si="2">C4/E4</f>
         <v>6.1893491124260356</v>
       </c>
     </row>
@@ -24190,15 +25342,15 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <f>D5*D5</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="F5" s="1">
-        <f>D6/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.2958579881656807</v>
       </c>
     </row>
@@ -24210,15 +25362,15 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <f>D6*D6</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="F6" s="1">
-        <f>D7/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.2958579881656807</v>
       </c>
     </row>
@@ -24230,15 +25382,15 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <f>D7*D7</f>
+        <f t="shared" si="0"/>
         <v>169</v>
       </c>
       <c r="F7" s="1">
-        <f>D8/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.2958579881656807</v>
       </c>
     </row>
@@ -24250,15 +25402,15 @@
         <v>14</v>
       </c>
       <c r="E8">
-        <f>D8*D8</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F8" s="1">
-        <f>D9/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4387755102040813</v>
       </c>
     </row>
@@ -24270,15 +25422,15 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <f>D9*D9</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F9" s="1">
-        <f>D10/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4387755102040813</v>
       </c>
     </row>
@@ -24290,15 +25442,15 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <f>D10*D10</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F10" s="1">
-        <f>D11/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4387755102040813</v>
       </c>
     </row>
@@ -24310,15 +25462,15 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <f>D11*D11</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F11" s="1">
-        <f>D12/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9489795918367347</v>
       </c>
     </row>
@@ -24330,15 +25482,15 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <f>D12*D12</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F12" s="1">
-        <f>D13/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9489795918367347</v>
       </c>
     </row>
@@ -24350,15 +25502,15 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f>D13*D13</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F13" s="1">
-        <f>D14/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9489795918367347</v>
       </c>
     </row>
@@ -24370,15 +25522,15 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <f>D14*D14</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F14" s="1">
-        <f>D15/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.4E-5</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1275510204081636</v>
       </c>
     </row>
@@ -24390,12 +25542,12 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <f>D15*D15</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1275510204081636</v>
       </c>
     </row>
@@ -24407,15 +25559,15 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <f>D16*D16</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="F16" s="1">
-        <f>D17/1000000</f>
+        <f t="shared" ref="F16:F34" si="3">D17/1000000</f>
         <v>1.5E-5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1275510204081636</v>
       </c>
     </row>
@@ -24427,15 +25579,15 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <f>D17*D17</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F17" s="1">
-        <f>D18/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5E-5</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.64</v>
       </c>
     </row>
@@ -24447,15 +25599,15 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <f>D18*D18</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F18" s="1">
-        <f>D19/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5E-5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.64</v>
       </c>
     </row>
@@ -24467,15 +25619,15 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <f>D19*D19</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F19" s="1">
-        <f>D20/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5E-5</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.64</v>
       </c>
     </row>
@@ -24487,15 +25639,15 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <f>D20*D20</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F20" s="1">
-        <f>D21/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5E-5</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.764444444444444</v>
       </c>
     </row>
@@ -24507,15 +25659,15 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <f>D21*D21</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F21" s="1">
-        <f>D22/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5E-5</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.764444444444444</v>
       </c>
     </row>
@@ -24527,15 +25679,15 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <f>D22*D22</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="F22" s="1">
-        <f>D23/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.764444444444444</v>
       </c>
     </row>
@@ -24547,15 +25699,15 @@
         <v>16</v>
       </c>
       <c r="E23">
-        <f>D23*D23</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F23" s="1">
-        <f>D24/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.21484375</v>
       </c>
     </row>
@@ -24567,15 +25719,15 @@
         <v>16</v>
       </c>
       <c r="E24">
-        <f>D24*D24</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F24" s="1">
-        <f>D25/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.21484375</v>
       </c>
     </row>
@@ -24587,15 +25739,15 @@
         <v>16</v>
       </c>
       <c r="E25">
-        <f>D25*D25</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F25" s="1">
-        <f>D26/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.21484375</v>
       </c>
     </row>
@@ -24607,15 +25759,15 @@
         <v>16</v>
       </c>
       <c r="E26">
-        <f>D26*D26</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F26" s="1">
-        <f>D27/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.63671875</v>
       </c>
     </row>
@@ -24627,15 +25779,15 @@
         <v>16</v>
       </c>
       <c r="E27">
-        <f>D27*D27</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F27" s="1">
-        <f>D28/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.63671875</v>
       </c>
     </row>
@@ -24647,15 +25799,15 @@
         <v>16</v>
       </c>
       <c r="E28">
-        <f>D28*D28</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F28" s="1">
-        <f>D29/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.63671875</v>
       </c>
     </row>
@@ -24667,15 +25819,15 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <f>D29*D29</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F29" s="1">
-        <f>D30/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.8359375</v>
       </c>
     </row>
@@ -24687,15 +25839,15 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <f>D30*D30</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F30" s="1">
-        <f>D31/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.8359375</v>
       </c>
     </row>
@@ -24707,15 +25859,15 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <f>D31*D31</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F31" s="1">
-        <f>D32/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.8359375</v>
       </c>
     </row>
@@ -24727,15 +25879,15 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <f>D32*D32</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F32" s="1">
-        <f>D33/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3359375</v>
       </c>
     </row>
@@ -24747,15 +25899,15 @@
         <v>16</v>
       </c>
       <c r="E33">
-        <f>D33*D33</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="F33" s="1">
-        <f>D34/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999999E-5</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3359375</v>
       </c>
     </row>
@@ -24767,15 +25919,15 @@
         <v>16</v>
       </c>
       <c r="E34">
-        <f>D34*D34</f>
+        <f t="shared" ref="E34:E65" si="4">D34*D34</f>
         <v>256</v>
       </c>
       <c r="F34" s="1">
-        <f>D35/1000000</f>
+        <f t="shared" si="3"/>
         <v>1.7E-5</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3359375</v>
       </c>
     </row>
@@ -24787,12 +25939,12 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <f>D35*D35</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6782006920415222</v>
       </c>
     </row>
@@ -24804,15 +25956,15 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <f>D36*D36</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="F36" s="1">
-        <f>D37/1000000</f>
+        <f t="shared" ref="F36:F41" si="5">D37/1000000</f>
         <v>1.7E-5</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6782006920415222</v>
       </c>
     </row>
@@ -24824,15 +25976,15 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <f>D37*D37</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="F37" s="1">
-        <f>D38/1000000</f>
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6782006920415222</v>
       </c>
     </row>
@@ -24844,15 +25996,15 @@
         <v>22</v>
       </c>
       <c r="E38">
-        <f>D38*D38</f>
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
       <c r="F38" s="1">
-        <f>D39/1000000</f>
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7252066115702478</v>
       </c>
     </row>
@@ -24864,15 +26016,15 @@
         <v>22</v>
       </c>
       <c r="E39">
-        <f>D39*D39</f>
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
       <c r="F39" s="1">
-        <f>D40/1000000</f>
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7252066115702478</v>
       </c>
     </row>
@@ -24884,15 +26036,15 @@
         <v>22</v>
       </c>
       <c r="E40">
-        <f>D40*D40</f>
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
       <c r="F40" s="1">
-        <f>D41/1000000</f>
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7252066115702478</v>
       </c>
     </row>
@@ -24904,15 +26056,15 @@
         <v>22</v>
       </c>
       <c r="E41">
-        <f>D41*D41</f>
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
       <c r="F41" s="1">
-        <f>D42/1000000</f>
+        <f t="shared" si="5"/>
         <v>2.1999999999999999E-5</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7355371900826446</v>
       </c>
     </row>
@@ -24924,12 +26076,12 @@
         <v>22</v>
       </c>
       <c r="E42">
-        <f>D42*D42</f>
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7355371900826446</v>
       </c>
     </row>
@@ -24941,15 +26093,15 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <f>D43*D43</f>
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
       <c r="F43" s="1">
-        <f>D44/1000000</f>
+        <f t="shared" ref="F43:F59" si="6">D44/1000000</f>
         <v>2.3E-5</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7355371900826446</v>
       </c>
     </row>
@@ -24961,15 +26113,15 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <f>D44*D44</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F44" s="1">
-        <f>D45/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6899810964083173</v>
       </c>
     </row>
@@ -24981,15 +26133,15 @@
         <v>23</v>
       </c>
       <c r="E45">
-        <f>D45*D45</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F45" s="1">
-        <f>D46/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6899810964083173</v>
       </c>
     </row>
@@ -25001,15 +26153,15 @@
         <v>23</v>
       </c>
       <c r="E46">
-        <f>D46*D46</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F46" s="1">
-        <f>D47/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6899810964083173</v>
       </c>
     </row>
@@ -25021,15 +26173,15 @@
         <v>23</v>
       </c>
       <c r="E47">
-        <f>D47*D47</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F47" s="1">
-        <f>D48/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.8090737240075612</v>
       </c>
     </row>
@@ -25041,15 +26193,15 @@
         <v>23</v>
       </c>
       <c r="E48">
-        <f>D48*D48</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F48" s="1">
-        <f>D49/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.8090737240075612</v>
       </c>
     </row>
@@ -25061,15 +26213,15 @@
         <v>23</v>
       </c>
       <c r="E49">
-        <f>D49*D49</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F49" s="1">
-        <f>D50/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.8090737240075612</v>
       </c>
     </row>
@@ -25081,15 +26233,15 @@
         <v>23</v>
       </c>
       <c r="E50">
-        <f>D50*D50</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F50" s="1">
-        <f>D51/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9754253308128549</v>
       </c>
     </row>
@@ -25101,15 +26253,15 @@
         <v>23</v>
       </c>
       <c r="E51">
-        <f>D51*D51</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F51" s="1">
-        <f>D52/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9754253308128549</v>
       </c>
     </row>
@@ -25121,15 +26273,15 @@
         <v>23</v>
       </c>
       <c r="E52">
-        <f>D52*D52</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F52" s="1">
-        <f>D53/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9754253308128549</v>
       </c>
     </row>
@@ -25141,15 +26293,15 @@
         <v>23</v>
       </c>
       <c r="E53">
-        <f>D53*D53</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F53" s="1">
-        <f>D54/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1928166351606801</v>
       </c>
     </row>
@@ -25161,15 +26313,15 @@
         <v>23</v>
       </c>
       <c r="E54">
-        <f>D54*D54</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F54" s="1">
-        <f>D55/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.3E-5</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1928166351606801</v>
       </c>
     </row>
@@ -25181,15 +26333,15 @@
         <v>23</v>
       </c>
       <c r="E55">
-        <f>D55*D55</f>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="F55" s="1">
-        <f>D56/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1928166351606801</v>
       </c>
     </row>
@@ -25201,15 +26353,15 @@
         <v>24</v>
       </c>
       <c r="E56">
-        <f>D56*D56</f>
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="F56" s="1">
-        <f>D57/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3003472222222223</v>
       </c>
     </row>
@@ -25221,15 +26373,15 @@
         <v>24</v>
       </c>
       <c r="E57">
-        <f>D57*D57</f>
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="F57" s="1">
-        <f>D58/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3003472222222223</v>
       </c>
     </row>
@@ -25241,15 +26393,15 @@
         <v>24</v>
       </c>
       <c r="E58">
-        <f>D58*D58</f>
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="F58" s="1">
-        <f>D59/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3003472222222223</v>
       </c>
     </row>
@@ -25261,15 +26413,15 @@
         <v>24</v>
       </c>
       <c r="E59">
-        <f>D59*D59</f>
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="F59" s="1">
-        <f>D60/1000000</f>
+        <f t="shared" si="6"/>
         <v>2.4000000000000001E-5</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4357638888888893</v>
       </c>
     </row>
@@ -25281,12 +26433,12 @@
         <v>24</v>
       </c>
       <c r="E60">
-        <f>D60*D60</f>
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4357638888888893</v>
       </c>
     </row>
@@ -25298,15 +26450,15 @@
         <v>24</v>
       </c>
       <c r="E61">
-        <f>D61*D61</f>
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="F61" s="1">
-        <f>D62/1000000</f>
+        <f t="shared" ref="F61:F71" si="7">D62/1000000</f>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4357638888888893</v>
       </c>
     </row>
@@ -25318,15 +26470,15 @@
         <v>25</v>
       </c>
       <c r="E62">
-        <f>D62*D62</f>
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
       <c r="F62" s="1">
-        <f>D63/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.2336</v>
       </c>
     </row>
@@ -25338,15 +26490,15 @@
         <v>25</v>
       </c>
       <c r="E63">
-        <f>D63*D63</f>
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
       <c r="F63" s="1">
-        <f>D64/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.2336</v>
       </c>
     </row>
@@ -25358,15 +26510,15 @@
         <v>25</v>
       </c>
       <c r="E64">
-        <f>D64*D64</f>
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
       <c r="F64" s="1">
-        <f>D65/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.2336</v>
       </c>
     </row>
@@ -25378,15 +26530,15 @@
         <v>25</v>
       </c>
       <c r="E65">
-        <f>D65*D65</f>
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
       <c r="F65" s="1">
-        <f>D66/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3183999999999996</v>
       </c>
     </row>
@@ -25398,15 +26550,15 @@
         <v>25</v>
       </c>
       <c r="E66">
-        <f>D66*D66</f>
+        <f t="shared" ref="E66:E97" si="8">D66*D66</f>
         <v>625</v>
       </c>
       <c r="F66" s="1">
-        <f>D67/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3183999999999996</v>
       </c>
     </row>
@@ -25418,15 +26570,15 @@
         <v>25</v>
       </c>
       <c r="E67">
-        <f>D67*D67</f>
+        <f t="shared" si="8"/>
         <v>625</v>
       </c>
       <c r="F67" s="1">
-        <f>D68/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.3183999999999996</v>
       </c>
     </row>
@@ -25438,15 +26590,15 @@
         <v>25</v>
       </c>
       <c r="E68">
-        <f>D68*D68</f>
+        <f t="shared" si="8"/>
         <v>625</v>
       </c>
       <c r="F68" s="1">
-        <f>D69/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G121" si="1">C68/E68</f>
+        <f t="shared" ref="G68:G121" si="9">C68/E68</f>
         <v>7.32</v>
       </c>
     </row>
@@ -25458,15 +26610,15 @@
         <v>25</v>
       </c>
       <c r="E69">
-        <f>D69*D69</f>
+        <f t="shared" si="8"/>
         <v>625</v>
       </c>
       <c r="F69" s="1">
-        <f>D70/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.32</v>
       </c>
     </row>
@@ -25478,15 +26630,15 @@
         <v>25</v>
       </c>
       <c r="E70">
-        <f>D70*D70</f>
+        <f t="shared" si="8"/>
         <v>625</v>
       </c>
       <c r="F70" s="1">
-        <f>D71/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.32</v>
       </c>
     </row>
@@ -25498,15 +26650,15 @@
         <v>25</v>
       </c>
       <c r="E71">
-        <f>D71*D71</f>
+        <f t="shared" si="8"/>
         <v>625</v>
       </c>
       <c r="F71" s="1">
-        <f>D72/1000000</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.3567999999999998</v>
       </c>
     </row>
@@ -25518,12 +26670,12 @@
         <v>25</v>
       </c>
       <c r="E72">
-        <f>D72*D72</f>
+        <f t="shared" si="8"/>
         <v>625</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.3567999999999998</v>
       </c>
     </row>
@@ -25535,15 +26687,15 @@
         <v>25</v>
       </c>
       <c r="E73">
-        <f>D73*D73</f>
+        <f t="shared" si="8"/>
         <v>625</v>
       </c>
       <c r="F73" s="1">
-        <f>D74/1000000</f>
+        <f t="shared" ref="F73:F89" si="10">D74/1000000</f>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.3567999999999998</v>
       </c>
     </row>
@@ -25555,15 +26707,15 @@
         <v>27</v>
       </c>
       <c r="E74">
-        <f>D74*D74</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F74" s="1">
-        <f>D75/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8834019204389572</v>
       </c>
     </row>
@@ -25575,15 +26727,15 @@
         <v>27</v>
       </c>
       <c r="E75">
-        <f>D75*D75</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F75" s="1">
-        <f>D76/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8834019204389572</v>
       </c>
     </row>
@@ -25595,15 +26747,15 @@
         <v>27</v>
       </c>
       <c r="E76">
-        <f>D76*D76</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F76" s="1">
-        <f>D77/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8834019204389572</v>
       </c>
     </row>
@@ -25615,15 +26767,15 @@
         <v>27</v>
       </c>
       <c r="E77">
-        <f>D77*D77</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F77" s="1">
-        <f>D78/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2496570644718794</v>
       </c>
     </row>
@@ -25635,15 +26787,15 @@
         <v>27</v>
       </c>
       <c r="E78">
-        <f>D78*D78</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F78" s="1">
-        <f>D79/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2496570644718794</v>
       </c>
     </row>
@@ -25655,15 +26807,15 @@
         <v>27</v>
       </c>
       <c r="E79">
-        <f>D79*D79</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F79" s="1">
-        <f>D80/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2496570644718794</v>
       </c>
     </row>
@@ -25675,15 +26827,15 @@
         <v>27</v>
       </c>
       <c r="E80">
-        <f>D80*D80</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F80" s="1">
-        <f>D81/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2620027434842251</v>
       </c>
     </row>
@@ -25695,15 +26847,15 @@
         <v>27</v>
       </c>
       <c r="E81">
-        <f>D81*D81</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F81" s="1">
-        <f>D82/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.6999999999999999E-5</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2620027434842251</v>
       </c>
     </row>
@@ -25715,15 +26867,15 @@
         <v>27</v>
       </c>
       <c r="E82">
-        <f>D82*D82</f>
+        <f t="shared" si="8"/>
         <v>729</v>
       </c>
       <c r="F82" s="1">
-        <f>D83/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.9E-5</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2620027434842251</v>
       </c>
     </row>
@@ -25735,15 +26887,15 @@
         <v>29</v>
       </c>
       <c r="E83">
-        <f>D83*D83</f>
+        <f t="shared" si="8"/>
         <v>841</v>
       </c>
       <c r="F83" s="1">
-        <f>D84/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.9E-5</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.7027348394768129</v>
       </c>
     </row>
@@ -25755,15 +26907,15 @@
         <v>29</v>
       </c>
       <c r="E84">
-        <f>D84*D84</f>
+        <f t="shared" si="8"/>
         <v>841</v>
       </c>
       <c r="F84" s="1">
-        <f>D85/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.9E-5</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.7027348394768129</v>
       </c>
     </row>
@@ -25775,15 +26927,15 @@
         <v>29</v>
       </c>
       <c r="E85">
-        <f>D85*D85</f>
+        <f t="shared" si="8"/>
         <v>841</v>
       </c>
       <c r="F85" s="1">
-        <f>D86/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.9E-5</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.7027348394768129</v>
       </c>
     </row>
@@ -25795,15 +26947,15 @@
         <v>29</v>
       </c>
       <c r="E86">
-        <f>D86*D86</f>
+        <f t="shared" si="8"/>
         <v>841</v>
       </c>
       <c r="F86" s="1">
-        <f>D87/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.9E-5</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8917954815695603</v>
       </c>
     </row>
@@ -25815,15 +26967,15 @@
         <v>29</v>
       </c>
       <c r="E87">
-        <f>D87*D87</f>
+        <f t="shared" si="8"/>
         <v>841</v>
       </c>
       <c r="F87" s="1">
-        <f>D88/1000000</f>
+        <f t="shared" si="10"/>
         <v>2.9E-5</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8917954815695603</v>
       </c>
     </row>
@@ -25835,15 +26987,15 @@
         <v>29</v>
       </c>
       <c r="E88">
-        <f>D88*D88</f>
+        <f t="shared" si="8"/>
         <v>841</v>
       </c>
       <c r="F88" s="1">
-        <f>D89/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8917954815695603</v>
       </c>
     </row>
@@ -25855,15 +27007,15 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <f>D89*D89</f>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="F89" s="1">
-        <f>D90/1000000</f>
+        <f t="shared" si="10"/>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.7133333333333329</v>
       </c>
     </row>
@@ -25875,12 +27027,12 @@
         <v>30</v>
       </c>
       <c r="E90">
-        <f>D90*D90</f>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.7133333333333329</v>
       </c>
     </row>
@@ -25892,15 +27044,15 @@
         <v>30</v>
       </c>
       <c r="E91">
-        <f>D91*D91</f>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="F91" s="1">
-        <f>D92/1000000</f>
+        <f t="shared" ref="F91:F107" si="11">D92/1000000</f>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.7133333333333329</v>
       </c>
     </row>
@@ -25912,15 +27064,15 @@
         <v>30</v>
       </c>
       <c r="E92">
-        <f>D92*D92</f>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="F92" s="1">
-        <f>D93/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8633333333333333</v>
       </c>
     </row>
@@ -25932,15 +27084,15 @@
         <v>30</v>
       </c>
       <c r="E93">
-        <f>D93*D93</f>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="F93" s="1">
-        <f>D94/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="G93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8633333333333333</v>
       </c>
     </row>
@@ -25952,15 +27104,15 @@
         <v>30</v>
       </c>
       <c r="E94">
-        <f>D94*D94</f>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="F94" s="1">
-        <f>D95/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.4E-5</v>
       </c>
       <c r="G94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.8633333333333333</v>
       </c>
     </row>
@@ -25972,15 +27124,15 @@
         <v>34</v>
       </c>
       <c r="E95">
-        <f>D95*D95</f>
+        <f t="shared" si="8"/>
         <v>1156</v>
       </c>
       <c r="F95" s="1">
-        <f>D96/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.4E-5</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2361591695501728</v>
       </c>
     </row>
@@ -25992,15 +27144,15 @@
         <v>34</v>
       </c>
       <c r="E96">
-        <f>D96*D96</f>
+        <f t="shared" si="8"/>
         <v>1156</v>
       </c>
       <c r="F96" s="1">
-        <f>D97/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.4E-5</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2361591695501728</v>
       </c>
     </row>
@@ -26012,15 +27164,15 @@
         <v>34</v>
       </c>
       <c r="E97">
-        <f>D97*D97</f>
+        <f t="shared" si="8"/>
         <v>1156</v>
       </c>
       <c r="F97" s="1">
-        <f>D98/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2361591695501728</v>
       </c>
     </row>
@@ -26032,15 +27184,15 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <f>D98*D98</f>
+        <f t="shared" ref="E98:E129" si="12">D98*D98</f>
         <v>1521</v>
       </c>
       <c r="F98" s="1">
-        <f>D99/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.0565417488494413</v>
       </c>
     </row>
@@ -26052,15 +27204,15 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <f>D99*D99</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F99" s="1">
-        <f>D100/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.0565417488494413</v>
       </c>
     </row>
@@ -26072,15 +27224,15 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <f>D100*D100</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F100" s="1">
-        <f>D101/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.0565417488494413</v>
       </c>
     </row>
@@ -26092,15 +27244,15 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <f>D101*D101</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F101" s="1">
-        <f>D102/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1794871794871797</v>
       </c>
     </row>
@@ -26112,15 +27264,15 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <f>D102*D102</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F102" s="1">
-        <f>D103/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1794871794871797</v>
       </c>
     </row>
@@ -26132,15 +27284,15 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <f>D103*D103</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F103" s="1">
-        <f>D104/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1794871794871797</v>
       </c>
     </row>
@@ -26152,15 +27304,15 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <f>D104*D104</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F104" s="1">
-        <f>D105/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.3083497698882312</v>
       </c>
     </row>
@@ -26172,15 +27324,15 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <f>D105*D105</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F105" s="1">
-        <f>D106/1000000</f>
+        <f t="shared" si="11"/>
         <v>3.8999999999999999E-5</v>
       </c>
       <c r="G105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.3083497698882312</v>
       </c>
     </row>
@@ -26192,15 +27344,15 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <f>D106*D106</f>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
       <c r="F106" s="1">
-        <f>D107/1000000</f>
+        <f t="shared" si="11"/>
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="G106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.3083497698882312</v>
       </c>
     </row>
@@ -26212,15 +27364,15 @@
         <v>44</v>
       </c>
       <c r="E107">
-        <f>D107*D107</f>
+        <f t="shared" si="12"/>
         <v>1936</v>
       </c>
       <c r="F107" s="1">
-        <f>D108/1000000</f>
+        <f t="shared" si="11"/>
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="G107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1100206611570247</v>
       </c>
     </row>
@@ -26232,12 +27384,12 @@
         <v>44</v>
       </c>
       <c r="E108">
-        <f>D108*D108</f>
+        <f t="shared" si="12"/>
         <v>1936</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1100206611570247</v>
       </c>
     </row>
@@ -26249,7 +27401,7 @@
         <v>44</v>
       </c>
       <c r="E109">
-        <f>D109*D109</f>
+        <f t="shared" si="12"/>
         <v>1936</v>
       </c>
       <c r="F109" s="1">
@@ -26257,7 +27409,7 @@
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="G109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1100206611570247</v>
       </c>
     </row>
@@ -26269,7 +27421,7 @@
         <v>44</v>
       </c>
       <c r="E110">
-        <f>D110*D110</f>
+        <f t="shared" si="12"/>
         <v>1936</v>
       </c>
       <c r="F110" s="1">
@@ -26277,7 +27429,7 @@
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1301652892561984</v>
       </c>
     </row>
@@ -26289,7 +27441,7 @@
         <v>44</v>
       </c>
       <c r="E111">
-        <f>D111*D111</f>
+        <f t="shared" si="12"/>
         <v>1936</v>
       </c>
       <c r="F111" s="1">
@@ -26297,7 +27449,7 @@
         <v>4.3999999999999999E-5</v>
       </c>
       <c r="G111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1301652892561984</v>
       </c>
     </row>
@@ -26309,7 +27461,7 @@
         <v>44</v>
       </c>
       <c r="E112">
-        <f>D112*D112</f>
+        <f t="shared" si="12"/>
         <v>1936</v>
       </c>
       <c r="F112" s="1">
@@ -26317,7 +27469,7 @@
         <v>5.1E-5</v>
       </c>
       <c r="G112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1301652892561984</v>
       </c>
     </row>
@@ -26329,12 +27481,12 @@
         <v>51</v>
       </c>
       <c r="E113">
-        <f>D113*D113</f>
+        <f t="shared" si="12"/>
         <v>2601</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.00961168781238</v>
       </c>
     </row>
@@ -26346,15 +27498,15 @@
         <v>51</v>
       </c>
       <c r="E114">
-        <f>D114*D114</f>
+        <f t="shared" si="12"/>
         <v>2601</v>
       </c>
       <c r="F114" s="1">
-        <f>D115/1000000</f>
+        <f t="shared" ref="F114:F120" si="13">D115/1000000</f>
         <v>5.1E-5</v>
       </c>
       <c r="G114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.00961168781238</v>
       </c>
     </row>
@@ -26366,15 +27518,15 @@
         <v>51</v>
       </c>
       <c r="E115">
-        <f>D115*D115</f>
+        <f t="shared" si="12"/>
         <v>2601</v>
       </c>
       <c r="F115" s="1">
-        <f>D116/1000000</f>
+        <f t="shared" si="13"/>
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="G115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.00961168781238</v>
       </c>
     </row>
@@ -26386,15 +27538,15 @@
         <v>52</v>
       </c>
       <c r="E116">
-        <f>D116*D116</f>
+        <f t="shared" si="12"/>
         <v>2704</v>
       </c>
       <c r="F116" s="1">
-        <f>D117/1000000</f>
+        <f t="shared" si="13"/>
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="G116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.96560650887574</v>
       </c>
     </row>
@@ -26406,15 +27558,15 @@
         <v>52</v>
       </c>
       <c r="E117">
-        <f>D117*D117</f>
+        <f t="shared" si="12"/>
         <v>2704</v>
       </c>
       <c r="F117" s="1">
-        <f>D118/1000000</f>
+        <f t="shared" si="13"/>
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="G117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.96560650887574</v>
       </c>
     </row>
@@ -26426,15 +27578,15 @@
         <v>52</v>
       </c>
       <c r="E118">
-        <f>D118*D118</f>
+        <f t="shared" si="12"/>
         <v>2704</v>
       </c>
       <c r="F118" s="1">
-        <f>D119/1000000</f>
+        <f t="shared" si="13"/>
         <v>5.8999999999999998E-5</v>
       </c>
       <c r="G118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6.96560650887574</v>
       </c>
     </row>
@@ -26446,15 +27598,15 @@
         <v>59</v>
       </c>
       <c r="E119">
-        <f>D119*D119</f>
+        <f t="shared" si="12"/>
         <v>3481</v>
       </c>
       <c r="F119" s="1">
-        <f>D120/1000000</f>
+        <f t="shared" si="13"/>
         <v>5.8999999999999998E-5</v>
       </c>
       <c r="G119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2326917552427465</v>
       </c>
     </row>
@@ -26466,15 +27618,15 @@
         <v>59</v>
       </c>
       <c r="E120">
-        <f>D120*D120</f>
+        <f t="shared" si="12"/>
         <v>3481</v>
       </c>
       <c r="F120" s="1">
-        <f>D121/1000000</f>
+        <f t="shared" si="13"/>
         <v>5.8999999999999998E-5</v>
       </c>
       <c r="G120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2326917552427465</v>
       </c>
     </row>
@@ -26486,11 +27638,11 @@
         <v>59</v>
       </c>
       <c r="E121">
-        <f>D121*D121</f>
+        <f t="shared" si="12"/>
         <v>3481</v>
       </c>
       <c r="G121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.2326917552427465</v>
       </c>
     </row>
@@ -26505,10 +27657,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="F1:F1048576 E1:E1048576"/>
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26516,7 +27668,7 @@
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26553,8 +27705,26 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1">
+        <v>1046</v>
+      </c>
+      <c r="T1" s="1">
+        <v>6.1499999999999996E-9</v>
+      </c>
+      <c r="V1">
+        <v>1046</v>
+      </c>
+      <c r="W1" s="1">
+        <v>6.2195400000000002E-9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -26591,8 +27761,26 @@
       <c r="L2">
         <v>34.566000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>1046</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6.2199999999999996E-9</v>
+      </c>
+      <c r="S2">
+        <v>1064</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4.3699999999999996E-9</v>
+      </c>
+      <c r="V2">
+        <v>1064</v>
+      </c>
+      <c r="W2" s="1">
+        <v>4.1431300000000004E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -26629,8 +27817,26 @@
       <c r="L3">
         <v>132.41</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>1064</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4.1700000000000003E-9</v>
+      </c>
+      <c r="S3">
+        <v>1262</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5.7100000000000003E-9</v>
+      </c>
+      <c r="V3">
+        <v>1262</v>
+      </c>
+      <c r="W3" s="1">
+        <v>4.1424399999999996E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -26667,8 +27873,26 @@
       <c r="L4">
         <v>47.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>1262</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.0199999999999998E-9</v>
+      </c>
+      <c r="S4">
+        <v>1362</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2.2400000000000001E-9</v>
+      </c>
+      <c r="V4">
+        <v>1362</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2.3050299999999998E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -26705,8 +27929,26 @@
       <c r="L5">
         <v>197.82499999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>1362</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.3100000000000001E-9</v>
+      </c>
+      <c r="S5">
+        <v>1397</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4.2899999999999999E-9</v>
+      </c>
+      <c r="V5">
+        <v>1397</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4.1541299999999996E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -26743,8 +27985,26 @@
       <c r="L6">
         <v>31.271999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>1397</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4.0899999999999997E-9</v>
+      </c>
+      <c r="S6">
+        <v>1494</v>
+      </c>
+      <c r="T6" s="1">
+        <v>6.5700000000000003E-9</v>
+      </c>
+      <c r="V6">
+        <v>1494</v>
+      </c>
+      <c r="W6" s="1">
+        <v>6.6414500000000001E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -26781,8 +28041,26 @@
       <c r="L7">
         <v>119.002</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>1494</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6.3700000000000001E-9</v>
+      </c>
+      <c r="S7">
+        <v>1522</v>
+      </c>
+      <c r="T7" s="1">
+        <v>5.0899999999999996E-9</v>
+      </c>
+      <c r="V7">
+        <v>1522</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4.1541299999999996E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -26819,8 +28097,26 @@
       <c r="L8">
         <v>56.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>1522</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>4.4400000000000004E-9</v>
+      </c>
+      <c r="S8">
+        <v>1591</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4.0300000000000004E-9</v>
+      </c>
+      <c r="V8">
+        <v>1591</v>
+      </c>
+      <c r="W8" s="1">
+        <v>3.8909600000000004E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -26857,8 +28153,26 @@
       <c r="L9">
         <v>193.38800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>1591</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3.8099999999999999E-9</v>
+      </c>
+      <c r="S9">
+        <v>1699</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2.3699999999999999E-9</v>
+      </c>
+      <c r="V9">
+        <v>1699</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2.3734000000000001E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -26895,8 +28209,26 @@
       <c r="L10">
         <v>379.80099999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>1699</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="S10">
+        <v>1750</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4.8399999999999998E-9</v>
+      </c>
+      <c r="V10">
+        <v>1750</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.0850699999999998E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -26933,8 +28265,26 @@
       <c r="L11">
         <v>2146.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>1750</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.9499999999999998E-9</v>
+      </c>
+      <c r="S11">
+        <v>1878</v>
+      </c>
+      <c r="T11" s="1">
+        <v>4.9E-9</v>
+      </c>
+      <c r="V11">
+        <v>1878</v>
+      </c>
+      <c r="W11" s="1">
+        <v>4.71209E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -26971,8 +28321,26 @@
       <c r="L12">
         <v>98.709000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>1878</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4.6399999999999997E-9</v>
+      </c>
+      <c r="S12">
+        <v>1930</v>
+      </c>
+      <c r="T12" s="1">
+        <v>8.5799999999999997E-9</v>
+      </c>
+      <c r="V12">
+        <v>1930</v>
+      </c>
+      <c r="W12" s="1">
+        <v>8.1792799999999999E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -27009,8 +28377,24 @@
       <c r="L13">
         <v>263.88299999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>1930</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>8.0399999999999995E-9</v>
+      </c>
+      <c r="S13">
+        <v>3255</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5.7399999999999996E-9</v>
+      </c>
+      <c r="V13">
+        <v>3255</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -27047,8 +28431,26 @@
       <c r="L14">
         <v>60.103000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>3255</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5.3400000000000002E-9</v>
+      </c>
+      <c r="S14">
+        <v>3260</v>
+      </c>
+      <c r="T14" s="1">
+        <v>6.1499999999999996E-9</v>
+      </c>
+      <c r="V14">
+        <v>3260</v>
+      </c>
+      <c r="W14" s="1">
+        <v>6.0827999999999997E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -27085,8 +28487,26 @@
       <c r="L15">
         <v>204.691</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>3260</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>6.0799999999999997E-9</v>
+      </c>
+      <c r="S15">
+        <v>3539</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1.04E-8</v>
+      </c>
+      <c r="V15">
+        <v>3539</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1.05616E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -27123,8 +28543,26 @@
       <c r="L16">
         <v>60.372</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>3539</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1.0600000000000001E-8</v>
+      </c>
+      <c r="S16">
+        <v>3602</v>
+      </c>
+      <c r="T16" s="1">
+        <v>7.5300000000000003E-9</v>
+      </c>
+      <c r="V16">
+        <v>3602</v>
+      </c>
+      <c r="W16" s="1">
+        <v>7.32584E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -27161,8 +28599,26 @@
       <c r="L17">
         <v>177.405</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>3602</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>7.4600000000000003E-9</v>
+      </c>
+      <c r="S17">
+        <v>3690</v>
+      </c>
+      <c r="T17" s="1">
+        <v>6.9500000000000002E-9</v>
+      </c>
+      <c r="V17">
+        <v>3690</v>
+      </c>
+      <c r="W17" s="1">
+        <v>5.3171100000000001E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -27199,8 +28655,26 @@
       <c r="L18">
         <v>123.967</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>3690</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5.2599999999999996E-9</v>
+      </c>
+      <c r="S18">
+        <v>3805</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5.52E-9</v>
+      </c>
+      <c r="V18">
+        <v>3805</v>
+      </c>
+      <c r="W18" s="1">
+        <v>5.04294E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -27237,8 +28711,26 @@
       <c r="L19">
         <v>513.63699999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>3805</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.9099999999999998E-9</v>
+      </c>
+      <c r="S19">
+        <v>4205</v>
+      </c>
+      <c r="T19" s="1">
+        <v>5.2700000000000002E-9</v>
+      </c>
+      <c r="V19">
+        <v>4205</v>
+      </c>
+      <c r="W19" s="1">
+        <v>5.0649400000000001E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -27275,8 +28767,26 @@
       <c r="L20">
         <v>146.81</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>4205</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5.0600000000000003E-9</v>
+      </c>
+      <c r="S20">
+        <v>4283</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="V20">
+        <v>4283</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2.7152500000000001E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -27313,8 +28823,26 @@
       <c r="L21">
         <v>655.81399999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>4283</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="S21">
+        <v>4521</v>
+      </c>
+      <c r="T21" s="1">
+        <v>6.4300000000000003E-9</v>
+      </c>
+      <c r="V21">
+        <v>4521</v>
+      </c>
+      <c r="W21" s="1">
+        <v>6.7671899999999997E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -27351,8 +28879,26 @@
       <c r="L22">
         <v>30.658999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>4521</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6.4300000000000003E-9</v>
+      </c>
+      <c r="S22">
+        <v>4574</v>
+      </c>
+      <c r="T22" s="1">
+        <v>5.4800000000000001E-9</v>
+      </c>
+      <c r="V22">
+        <v>4574</v>
+      </c>
+      <c r="W22" s="1">
+        <v>5.1906799999999997E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -27389,8 +28935,24 @@
       <c r="L23">
         <v>112.023</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>4574</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>5.3300000000000004E-9</v>
+      </c>
+      <c r="S23">
+        <v>4575</v>
+      </c>
+      <c r="T23" s="1">
+        <v>6.41E-9</v>
+      </c>
+      <c r="V23">
+        <v>4575</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -27427,8 +28989,24 @@
       <c r="L24">
         <v>144.196</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <v>4575</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5.7299999999999999E-9</v>
+      </c>
+      <c r="S24">
+        <v>4598</v>
+      </c>
+      <c r="T24" s="1">
+        <v>5.8200000000000002E-9</v>
+      </c>
+      <c r="V24">
+        <v>4598</v>
+      </c>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -27465,8 +29043,26 @@
       <c r="L25">
         <v>525.14499999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>4598</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>5.6800000000000002E-9</v>
+      </c>
+      <c r="S25">
+        <v>5018</v>
+      </c>
+      <c r="T25" s="1">
+        <v>4.3599999999999998E-9</v>
+      </c>
+      <c r="V25">
+        <v>5018</v>
+      </c>
+      <c r="W25" s="1">
+        <v>4.3482399999999999E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -27503,8 +29099,26 @@
       <c r="L26">
         <v>35.738999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>5018</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>4.3599999999999998E-9</v>
+      </c>
+      <c r="S26">
+        <v>5285</v>
+      </c>
+      <c r="T26" s="1">
+        <v>5.2599999999999996E-9</v>
+      </c>
+      <c r="V26">
+        <v>5285</v>
+      </c>
+      <c r="W26" s="1">
+        <v>5.3274200000000002E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -27541,8 +29155,26 @@
       <c r="L27">
         <v>136.96100000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>5285</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>5.1899999999999997E-9</v>
+      </c>
+      <c r="S27">
+        <v>5294</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2.8499999999999999E-9</v>
+      </c>
+      <c r="V27">
+        <v>5294</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2.75166E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -27579,8 +29211,26 @@
       <c r="L28">
         <v>167.232</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>5294</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="S28">
+        <v>5637</v>
+      </c>
+      <c r="T28" s="1">
+        <v>6E-9</v>
+      </c>
+      <c r="V28">
+        <v>5637</v>
+      </c>
+      <c r="W28" s="1">
+        <v>6.0808699999999999E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -27617,8 +29267,26 @@
       <c r="L29">
         <v>711.15499999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>5637</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>5.7999999999999998E-9</v>
+      </c>
+      <c r="S29">
+        <v>5796</v>
+      </c>
+      <c r="T29" s="1">
+        <v>8.4000000000000008E-9</v>
+      </c>
+      <c r="V29">
+        <v>5796</v>
+      </c>
+      <c r="W29" s="1">
+        <v>8.4642399999999993E-9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -27655,8 +29323,26 @@
       <c r="L30">
         <v>47.789000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>5796</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>8.6499999999999997E-9</v>
+      </c>
+      <c r="S30">
+        <v>6042</v>
+      </c>
+      <c r="T30" s="1">
+        <v>6.3199999999999997E-9</v>
+      </c>
+      <c r="V30">
+        <v>6042</v>
+      </c>
+      <c r="W30" s="1">
+        <v>6.2401599999999997E-9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -27693,8 +29379,26 @@
       <c r="L31">
         <v>185.16900000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>6042</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>6.3199999999999997E-9</v>
+      </c>
+      <c r="S31">
+        <v>6177</v>
+      </c>
+      <c r="T31" s="1">
+        <v>4.9900000000000003E-9</v>
+      </c>
+      <c r="V31">
+        <v>6177</v>
+      </c>
+      <c r="W31" s="1">
+        <v>4.9534699999999999E-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -27731,8 +29435,24 @@
       <c r="L32">
         <v>241.471</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>6177</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4.8499999999999996E-9</v>
+      </c>
+      <c r="S32">
+        <v>8365</v>
+      </c>
+      <c r="T32" s="1">
+        <v>9.0099999999999993E-9</v>
+      </c>
+      <c r="V32">
+        <v>8365</v>
+      </c>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -27769,8 +29489,24 @@
       <c r="L33">
         <v>942.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>8365</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>8.7199999999999997E-9</v>
+      </c>
+      <c r="S33">
+        <v>10733</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1.11E-8</v>
+      </c>
+      <c r="V33">
+        <v>10733</v>
+      </c>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -27807,8 +29543,26 @@
       <c r="L34">
         <v>263.31299999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <v>10733</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1.11E-8</v>
+      </c>
+      <c r="S34">
+        <v>10920</v>
+      </c>
+      <c r="T34" s="1">
+        <v>7.54E-9</v>
+      </c>
+      <c r="V34">
+        <v>10920</v>
+      </c>
+      <c r="W34" s="1">
+        <v>7.5419499999999996E-9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -27845,8 +29599,24 @@
       <c r="L35">
         <v>1199.3900000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>10920</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>7.6799999999999999E-9</v>
+      </c>
+      <c r="S35">
+        <v>11116</v>
+      </c>
+      <c r="T35" s="1">
+        <v>6.8999999999999997E-9</v>
+      </c>
+      <c r="V35">
+        <v>11116</v>
+      </c>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -27883,8 +29653,24 @@
       <c r="L36">
         <v>50.624000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <v>11116</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>6.5700000000000003E-9</v>
+      </c>
+      <c r="S36">
+        <v>13765</v>
+      </c>
+      <c r="T36" s="1">
+        <v>8.2800000000000004E-9</v>
+      </c>
+      <c r="V36">
+        <v>13765</v>
+      </c>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -27921,8 +29707,24 @@
       <c r="L37">
         <v>184.46700000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <v>13765</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>7.6199999999999997E-9</v>
+      </c>
+      <c r="S37">
+        <v>13804</v>
+      </c>
+      <c r="T37" s="1">
+        <v>7.6600000000000004E-9</v>
+      </c>
+      <c r="V37">
+        <v>13804</v>
+      </c>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -27959,8 +29761,26 @@
       <c r="L38">
         <v>122.31100000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <v>13804</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>7.4600000000000003E-9</v>
+      </c>
+      <c r="S38">
+        <v>18232</v>
+      </c>
+      <c r="T38" s="1">
+        <v>6.7999999999999997E-9</v>
+      </c>
+      <c r="V38">
+        <v>18232</v>
+      </c>
+      <c r="W38" s="1">
+        <v>6.5246399999999999E-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -27997,8 +29817,26 @@
       <c r="L39">
         <v>496.416</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <v>18232</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>6.72E-9</v>
+      </c>
+      <c r="S39">
+        <v>18835</v>
+      </c>
+      <c r="T39" s="1">
+        <v>6.3899999999999996E-9</v>
+      </c>
+      <c r="V39">
+        <v>18835</v>
+      </c>
+      <c r="W39" s="1">
+        <v>6.2866700000000002E-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>108</v>
       </c>
@@ -28035,8 +29873,24 @@
       <c r="L40">
         <v>30.561</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>18835</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>6.3700000000000001E-9</v>
+      </c>
+      <c r="S40">
+        <v>25177</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1.0600000000000001E-8</v>
+      </c>
+      <c r="V40">
+        <v>25177</v>
+      </c>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -28073,8 +29927,14 @@
       <c r="L41">
         <v>118.583</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>25177</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>9.6899999999999994E-9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -28112,7 +29972,7 @@
         <v>88.236000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -28153,12 +30013,8 @@
         <f>G43-G42</f>
         <v>14</v>
       </c>
-      <c r="O43">
-        <f>B43+C43+D43</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -28196,7 +30052,7 @@
         <v>80.968000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -28237,12 +30093,8 @@
         <f>G45-G44</f>
         <v>12</v>
       </c>
-      <c r="O45">
-        <f>B45+C45+D45</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -28280,7 +30132,7 @@
         <v>55.509</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -28321,12 +30173,8 @@
         <f>G47-G46</f>
         <v>10</v>
       </c>
-      <c r="O47">
-        <f>B47+C47+D47</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -28364,7 +30212,7 @@
         <v>84.037000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -28405,12 +30253,8 @@
         <f>G49-G48</f>
         <v>6</v>
       </c>
-      <c r="O49">
-        <f>B49+C49+D49</f>
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -28448,7 +30292,7 @@
         <v>826.48</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -28489,12 +30333,8 @@
         <f>G51-G50</f>
         <v>10</v>
       </c>
-      <c r="O51">
-        <f>B51+C51+D51</f>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -28532,7 +30372,7 @@
         <v>85.209000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -28573,12 +30413,8 @@
         <f>G53-G52</f>
         <v>-2</v>
       </c>
-      <c r="O53">
-        <f>B53+C53+D53</f>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -28616,7 +30452,7 @@
         <v>53.137</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -28657,12 +30493,8 @@
         <f>G55-G54</f>
         <v>6</v>
       </c>
-      <c r="O55">
-        <f>B55+C55+D55</f>
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -28700,7 +30532,7 @@
         <v>86.123000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -28741,12 +30573,8 @@
         <f>G57-G56</f>
         <v>-2</v>
       </c>
-      <c r="O57">
-        <f>B57+C57+D57</f>
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -28784,7 +30612,7 @@
         <v>289.63</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
@@ -28825,12 +30653,8 @@
         <f>G59-G58</f>
         <v>10</v>
       </c>
-      <c r="O59">
-        <f>B59+C59+D59</f>
-        <v>3611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -28868,7 +30692,7 @@
         <v>401.43400000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
@@ -28909,12 +30733,8 @@
         <f>G61-G60</f>
         <v>-2</v>
       </c>
-      <c r="O61">
-        <f>B61+C61+D61</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -28952,7 +30772,7 @@
         <v>53.45</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -28993,12 +30813,8 @@
         <f>G63-G62</f>
         <v>12</v>
       </c>
-      <c r="O63">
-        <f>B63+C63+D63</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -29036,7 +30852,7 @@
         <v>429.65800000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -29077,12 +30893,8 @@
         <f>G65-G64</f>
         <v>10</v>
       </c>
-      <c r="O65">
-        <f>B65+C65+D65</f>
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -29120,7 +30932,7 @@
         <v>60.018999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -29161,12 +30973,8 @@
         <f>G67-G66</f>
         <v>8</v>
       </c>
-      <c r="O67">
-        <f>B67+C67+D67</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -29204,7 +31012,7 @@
         <v>397.95800000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -29245,12 +31053,8 @@
         <f>G69-G68</f>
         <v>8</v>
       </c>
-      <c r="O69">
-        <f>B69+C69+D69</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -29288,7 +31092,7 @@
         <v>2620.11</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -29329,12 +31133,8 @@
         <f>G71-G70</f>
         <v>4</v>
       </c>
-      <c r="O71">
-        <f>B71+C71+D71</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -29372,7 +31172,7 @@
         <v>376.67099999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -29413,12 +31213,8 @@
         <f>G73-G72</f>
         <v>8</v>
       </c>
-      <c r="O73">
-        <f>B73+C73+D73</f>
-        <v>4524</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -29456,7 +31252,7 @@
         <v>459.98899999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -29497,12 +31293,8 @@
         <f>G75-G74</f>
         <v>12</v>
       </c>
-      <c r="O75">
-        <f>B75+C75+D75</f>
-        <v>4122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -29540,7 +31332,7 @@
         <v>105.526</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -29581,12 +31373,8 @@
         <f>G77-G76</f>
         <v>12</v>
       </c>
-      <c r="O77">
-        <f>B77+C77+D77</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -29624,7 +31412,7 @@
         <v>357.39600000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -29665,12 +31453,8 @@
         <f>G79-G78</f>
         <v>12</v>
       </c>
-      <c r="O79">
-        <f>B79+C79+D79</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -29708,7 +31492,7 @@
         <v>49.618000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -29749,12 +31533,8 @@
         <f>G81-G80</f>
         <v>8</v>
       </c>
-      <c r="O81">
-        <f>B81+C81+D81</f>
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -29792,7 +31572,7 @@
         <v>22.625</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -29830,7 +31610,7 @@
         <v>101.828</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>32</v>
       </c>
@@ -29868,7 +31648,7 @@
         <v>34.256</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -29906,7 +31686,7 @@
         <v>153.48500000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -29944,7 +31724,7 @@
         <v>20.928000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -29982,7 +31762,7 @@
         <v>90.165999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -30020,7 +31800,7 @@
         <v>43.024000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>37</v>
       </c>
@@ -30058,7 +31838,7 @@
         <v>154.66200000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -30087,7 +31867,7 @@
         <v>582.87099999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -30116,7 +31896,7 @@
         <v>8371.9500000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -30154,7 +31934,7 @@
         <v>50.68</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -30192,7 +31972,7 @@
         <v>141.36600000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -30230,7 +32010,7 @@
         <v>28.391999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -30268,7 +32048,7 @@
         <v>115.08499999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -31215,7 +32995,2920 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="V1:W121">
+    <sortCondition ref="V1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>121</v>
+      </c>
+      <c r="D1">
+        <v>446</v>
+      </c>
+      <c r="E1">
+        <v>955</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>14</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1522</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1">
+        <v>5.3300000000000004E-9</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4.1599999999999997E-9</v>
+      </c>
+      <c r="O1" s="1">
+        <v>200</v>
+      </c>
+      <c r="P1">
+        <v>4.7639100000000001</v>
+      </c>
+      <c r="Q1">
+        <v>84</v>
+      </c>
+      <c r="R1" s="1">
+        <v>3330000</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2270000</v>
+      </c>
+      <c r="T1">
+        <v>20075.8</v>
+      </c>
+      <c r="U1">
+        <v>0.11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>4.4400000000000004E-9</v>
+      </c>
+      <c r="W1">
+        <v>34.566000000000003</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>363</v>
+      </c>
+      <c r="D2">
+        <v>1346</v>
+      </c>
+      <c r="E2">
+        <v>2865</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4574</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6.9699999999999997E-9</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.1899999999999997E-9</v>
+      </c>
+      <c r="O2" s="1">
+        <v>200</v>
+      </c>
+      <c r="P2">
+        <v>5.29148</v>
+      </c>
+      <c r="Q2">
+        <v>211</v>
+      </c>
+      <c r="R2" s="1">
+        <v>9260000</v>
+      </c>
+      <c r="S2" s="1">
+        <v>6780000</v>
+      </c>
+      <c r="T2">
+        <v>19632.2</v>
+      </c>
+      <c r="U2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="V2" s="1">
+        <v>5.3300000000000004E-9</v>
+      </c>
+      <c r="W2">
+        <v>132.41</v>
+      </c>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>589</v>
+      </c>
+      <c r="E3">
+        <v>1172</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1878</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.2700000000000002E-9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.5100000000000003E-9</v>
+      </c>
+      <c r="O3" s="1">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>5.5124000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>81</v>
+      </c>
+      <c r="R3" s="1">
+        <v>3790000</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2780000</v>
+      </c>
+      <c r="T3">
+        <v>20116.5</v>
+      </c>
+      <c r="U3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>4.6399999999999997E-9</v>
+      </c>
+      <c r="W3">
+        <v>47.45</v>
+      </c>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>351</v>
+      </c>
+      <c r="D4">
+        <v>1770</v>
+      </c>
+      <c r="E4">
+        <v>3516</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5637</v>
+      </c>
+      <c r="L4">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.5800000000000007E-9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.6800000000000002E-9</v>
+      </c>
+      <c r="O4" s="1">
+        <v>200</v>
+      </c>
+      <c r="P4">
+        <v>6.2145900000000003</v>
+      </c>
+      <c r="Q4">
+        <v>226</v>
+      </c>
+      <c r="R4" s="1">
+        <v>12500000</v>
+      </c>
+      <c r="S4" s="1">
+        <v>8350000</v>
+      </c>
+      <c r="T4">
+        <v>19307</v>
+      </c>
+      <c r="U4">
+        <v>0.185</v>
+      </c>
+      <c r="V4" s="1">
+        <v>5.7999999999999998E-9</v>
+      </c>
+      <c r="W4">
+        <v>197.82499999999999</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>538</v>
+      </c>
+      <c r="E5">
+        <v>700</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1262</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4.6999999999999999E-9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.8000000000000001E-9</v>
+      </c>
+      <c r="O5" s="1">
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <v>5.0435999999999996</v>
+      </c>
+      <c r="Q5">
+        <v>75</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1880000</v>
+      </c>
+      <c r="T5">
+        <v>20192</v>
+      </c>
+      <c r="U5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4.0199999999999998E-9</v>
+      </c>
+      <c r="W5">
+        <v>31.271999999999998</v>
+      </c>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>1633</v>
+      </c>
+      <c r="E6">
+        <v>2100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3805</v>
+      </c>
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6.5499999999999999E-9</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.7699999999999999E-9</v>
+      </c>
+      <c r="O6" s="1">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>5.3331799999999996</v>
+      </c>
+      <c r="Q6">
+        <v>167</v>
+      </c>
+      <c r="R6" s="1">
+        <v>7840000</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5640000</v>
+      </c>
+      <c r="T6">
+        <v>19520.400000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.18</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4.9099999999999998E-9</v>
+      </c>
+      <c r="W6">
+        <v>119.002</v>
+      </c>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>342</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1353</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>229</v>
+      </c>
+      <c r="I7">
+        <v>197</v>
+      </c>
+      <c r="J7">
+        <v>224</v>
+      </c>
+      <c r="K7">
+        <v>1699</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2.8499999999999999E-9</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="O7" s="1">
+        <v>200</v>
+      </c>
+      <c r="P7">
+        <v>3.70506</v>
+      </c>
+      <c r="Q7">
+        <v>88</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3790000</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2520000</v>
+      </c>
+      <c r="T7">
+        <v>20116.5</v>
+      </c>
+      <c r="U7">
+        <v>0.107</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2.3400000000000002E-9</v>
+      </c>
+      <c r="W7">
+        <v>56.61</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1026</v>
+      </c>
+      <c r="D8">
+        <v>209</v>
+      </c>
+      <c r="E8">
+        <v>4059</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>229</v>
+      </c>
+      <c r="I8">
+        <v>197</v>
+      </c>
+      <c r="J8">
+        <v>672</v>
+      </c>
+      <c r="K8">
+        <v>5294</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.7399999999999999E-9</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="O8" s="1">
+        <v>200</v>
+      </c>
+      <c r="P8">
+        <v>4.9383800000000004</v>
+      </c>
+      <c r="Q8">
+        <v>250</v>
+      </c>
+      <c r="R8" s="1">
+        <v>10800000</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7850000</v>
+      </c>
+      <c r="T8">
+        <v>19400</v>
+      </c>
+      <c r="U8">
+        <v>0.15</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="W8">
+        <v>193.38800000000001</v>
+      </c>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>527</v>
+      </c>
+      <c r="D9">
+        <v>2040</v>
+      </c>
+      <c r="E9">
+        <v>5797</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>82</v>
+      </c>
+      <c r="J9">
+        <v>33</v>
+      </c>
+      <c r="K9">
+        <v>8365</v>
+      </c>
+      <c r="L9">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.3399999999999999E-8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>8.5799999999999997E-9</v>
+      </c>
+      <c r="O9" s="1">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>5.6228600000000002</v>
+      </c>
+      <c r="Q9">
+        <v>224</v>
+      </c>
+      <c r="R9" s="1">
+        <v>17100000</v>
+      </c>
+      <c r="S9" s="1">
+        <v>12400000</v>
+      </c>
+      <c r="T9">
+        <v>19202.5</v>
+      </c>
+      <c r="U9">
+        <v>0.21</v>
+      </c>
+      <c r="V9" s="1">
+        <v>8.7199999999999997E-9</v>
+      </c>
+      <c r="W9">
+        <v>379.80099999999999</v>
+      </c>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1581</v>
+      </c>
+      <c r="D10">
+        <v>6202</v>
+      </c>
+      <c r="E10">
+        <v>17391</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>82</v>
+      </c>
+      <c r="J10">
+        <v>99</v>
+      </c>
+      <c r="K10">
+        <v>25177</v>
+      </c>
+      <c r="L10">
+        <v>59</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.89E-8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9.4199999999999993E-9</v>
+      </c>
+      <c r="O10" s="1">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>6.2762000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>765</v>
+      </c>
+      <c r="R10" s="1">
+        <v>51600000</v>
+      </c>
+      <c r="S10" s="1">
+        <v>37400000</v>
+      </c>
+      <c r="T10">
+        <v>18952.7</v>
+      </c>
+      <c r="U10">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="V10" s="1">
+        <v>9.6899999999999994E-9</v>
+      </c>
+      <c r="W10">
+        <v>2146.4</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>323</v>
+      </c>
+      <c r="E11">
+        <v>1180</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11">
+        <v>245</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1591</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4.8399999999999998E-9</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.7399999999999999E-9</v>
+      </c>
+      <c r="O11" s="1">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>4.0710699999999997</v>
+      </c>
+      <c r="Q11">
+        <v>55</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3790000</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2370000</v>
+      </c>
+      <c r="T11">
+        <v>20116.5</v>
+      </c>
+      <c r="U11">
+        <v>0.124</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3.8099999999999999E-9</v>
+      </c>
+      <c r="W11">
+        <v>98.709000000000003</v>
+      </c>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>264</v>
+      </c>
+      <c r="D12">
+        <v>1214</v>
+      </c>
+      <c r="E12">
+        <v>3540</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>256</v>
+      </c>
+      <c r="I12">
+        <v>245</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>5018</v>
+      </c>
+      <c r="L12">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6.7500000000000001E-9</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4.2899999999999999E-9</v>
+      </c>
+      <c r="O12" s="1">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>3.9862000000000002</v>
+      </c>
+      <c r="Q12">
+        <v>95</v>
+      </c>
+      <c r="R12" s="1">
+        <v>10800000</v>
+      </c>
+      <c r="S12" s="1">
+        <v>7440000</v>
+      </c>
+      <c r="T12">
+        <v>19400</v>
+      </c>
+      <c r="U12">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4.3599999999999998E-9</v>
+      </c>
+      <c r="W12">
+        <v>263.88299999999998</v>
+      </c>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <v>440</v>
+      </c>
+      <c r="E13">
+        <v>913</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>377</v>
+      </c>
+      <c r="K13">
+        <v>1494</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7.7400000000000002E-9</v>
+      </c>
+      <c r="N13" s="1">
+        <v>6.3000000000000002E-9</v>
+      </c>
+      <c r="O13" s="1">
+        <v>200</v>
+      </c>
+      <c r="P13">
+        <v>3.0611000000000002</v>
+      </c>
+      <c r="Q13">
+        <v>62</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3330000</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2270000</v>
+      </c>
+      <c r="T13">
+        <v>20075.8</v>
+      </c>
+      <c r="U13">
+        <v>0.104</v>
+      </c>
+      <c r="V13" s="1">
+        <v>6.3700000000000001E-9</v>
+      </c>
+      <c r="W13">
+        <v>60.103000000000002</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>423</v>
+      </c>
+      <c r="D14">
+        <v>1359</v>
+      </c>
+      <c r="E14">
+        <v>2739</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
+      </c>
+      <c r="I14">
+        <v>39</v>
+      </c>
+      <c r="J14">
+        <v>1131</v>
+      </c>
+      <c r="K14">
+        <v>4521</v>
+      </c>
+      <c r="L14">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1">
+        <v>9.6500000000000004E-9</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6.2199999999999996E-9</v>
+      </c>
+      <c r="O14" s="1">
+        <v>200</v>
+      </c>
+      <c r="P14">
+        <v>3.44041</v>
+      </c>
+      <c r="Q14">
+        <v>156</v>
+      </c>
+      <c r="R14" s="1">
+        <v>9260000</v>
+      </c>
+      <c r="S14" s="1">
+        <v>6830000</v>
+      </c>
+      <c r="T14">
+        <v>19632.2</v>
+      </c>
+      <c r="U14">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V14" s="1">
+        <v>6.4300000000000003E-9</v>
+      </c>
+      <c r="W14">
+        <v>204.691</v>
+      </c>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1356</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>229</v>
+      </c>
+      <c r="I15">
+        <v>197</v>
+      </c>
+      <c r="J15">
+        <v>224</v>
+      </c>
+      <c r="K15">
+        <v>1362</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2.8499999999999999E-9</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2.1700000000000002E-9</v>
+      </c>
+      <c r="O15" s="1">
+        <v>200</v>
+      </c>
+      <c r="P15">
+        <v>3.823</v>
+      </c>
+      <c r="Q15">
+        <v>67</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="S15" s="1">
+        <v>2030000</v>
+      </c>
+      <c r="T15">
+        <v>20192</v>
+      </c>
+      <c r="U15">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>2.3100000000000001E-9</v>
+      </c>
+      <c r="W15">
+        <v>60.372</v>
+      </c>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>209</v>
+      </c>
+      <c r="E16">
+        <v>4068</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>229</v>
+      </c>
+      <c r="I16">
+        <v>197</v>
+      </c>
+      <c r="J16">
+        <v>672</v>
+      </c>
+      <c r="K16">
+        <v>4283</v>
+      </c>
+      <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3.5400000000000002E-9</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="O16" s="1">
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>4.74885</v>
+      </c>
+      <c r="Q16">
+        <v>177</v>
+      </c>
+      <c r="R16" s="1">
+        <v>8530000</v>
+      </c>
+      <c r="S16" s="1">
+        <v>6350000</v>
+      </c>
+      <c r="T16">
+        <v>19673.8</v>
+      </c>
+      <c r="U16">
+        <v>0.122</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2.6500000000000002E-9</v>
+      </c>
+      <c r="W16">
+        <v>177.405</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>433</v>
+      </c>
+      <c r="D17">
+        <v>1024</v>
+      </c>
+      <c r="E17">
+        <v>2145</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>131</v>
+      </c>
+      <c r="I17">
+        <v>114</v>
+      </c>
+      <c r="J17">
+        <v>1122</v>
+      </c>
+      <c r="K17">
+        <v>3602</v>
+      </c>
+      <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17" s="1">
+        <v>9.3800000000000003E-9</v>
+      </c>
+      <c r="N17" s="1">
+        <v>7.3300000000000001E-9</v>
+      </c>
+      <c r="O17" s="1">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>4.2743000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>139</v>
+      </c>
+      <c r="R17" s="1">
+        <v>7840000</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5470000</v>
+      </c>
+      <c r="T17">
+        <v>19520.400000000001</v>
+      </c>
+      <c r="U17">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V17" s="1">
+        <v>7.4600000000000003E-9</v>
+      </c>
+      <c r="W17">
+        <v>123.967</v>
+      </c>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1299</v>
+      </c>
+      <c r="D18">
+        <v>3186</v>
+      </c>
+      <c r="E18">
+        <v>6435</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>131</v>
+      </c>
+      <c r="I18">
+        <v>114</v>
+      </c>
+      <c r="J18">
+        <v>3366</v>
+      </c>
+      <c r="K18">
+        <v>10920</v>
+      </c>
+      <c r="L18">
+        <v>39</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.16E-8</v>
+      </c>
+      <c r="N18" s="1">
+        <v>7.4700000000000001E-9</v>
+      </c>
+      <c r="O18" s="1">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>5.1553399999999998</v>
+      </c>
+      <c r="Q18">
+        <v>435</v>
+      </c>
+      <c r="R18" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="S18" s="1">
+        <v>16600000</v>
+      </c>
+      <c r="T18">
+        <v>19165.900000000001</v>
+      </c>
+      <c r="U18">
+        <v>0.183</v>
+      </c>
+      <c r="V18" s="1">
+        <v>7.6799999999999999E-9</v>
+      </c>
+      <c r="W18">
+        <v>513.63699999999994</v>
+      </c>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>190</v>
+      </c>
+      <c r="D19">
+        <v>1944</v>
+      </c>
+      <c r="E19">
+        <v>2464</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>4598</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1">
+        <v>7.0399999999999997E-9</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5.6100000000000003E-9</v>
+      </c>
+      <c r="O19" s="1">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>5.3193799999999998</v>
+      </c>
+      <c r="Q19">
+        <v>152</v>
+      </c>
+      <c r="R19" s="1">
+        <v>9260000</v>
+      </c>
+      <c r="S19" s="1">
+        <v>6810000</v>
+      </c>
+      <c r="T19">
+        <v>19632.2</v>
+      </c>
+      <c r="U19">
+        <v>0.192</v>
+      </c>
+      <c r="V19" s="1">
+        <v>5.6800000000000002E-9</v>
+      </c>
+      <c r="W19">
+        <v>146.81</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>570</v>
+      </c>
+      <c r="D20">
+        <v>5842</v>
+      </c>
+      <c r="E20">
+        <v>7392</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>13804</v>
+      </c>
+      <c r="L20">
+        <v>44</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.07E-8</v>
+      </c>
+      <c r="N20" s="1">
+        <v>7.2300000000000001E-9</v>
+      </c>
+      <c r="O20" s="1">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>5.4995000000000003</v>
+      </c>
+      <c r="Q20">
+        <v>482</v>
+      </c>
+      <c r="R20" s="1">
+        <v>28700000</v>
+      </c>
+      <c r="S20" s="1">
+        <v>20500000</v>
+      </c>
+      <c r="T20">
+        <v>19088</v>
+      </c>
+      <c r="U20">
+        <v>0.21</v>
+      </c>
+      <c r="V20" s="1">
+        <v>7.4600000000000003E-9</v>
+      </c>
+      <c r="W20">
+        <v>655.81399999999996</v>
+      </c>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>227</v>
+      </c>
+      <c r="E21">
+        <v>792</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>63</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1064</v>
+      </c>
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4.9099999999999998E-9</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3.9600000000000004E-9</v>
+      </c>
+      <c r="O21" s="1">
+        <v>200</v>
+      </c>
+      <c r="P21">
+        <v>4.9579599999999999</v>
+      </c>
+      <c r="Q21">
+        <v>66</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1590000</v>
+      </c>
+      <c r="T21">
+        <v>20337.5</v>
+      </c>
+      <c r="U21">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4.1700000000000003E-9</v>
+      </c>
+      <c r="W21">
+        <v>30.658999999999999</v>
+      </c>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>135</v>
+      </c>
+      <c r="D22">
+        <v>744</v>
+      </c>
+      <c r="E22">
+        <v>2376</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>63</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3255</v>
+      </c>
+      <c r="L22">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1">
+        <v>6.7800000000000002E-9</v>
+      </c>
+      <c r="N22" s="1">
+        <v>5.2000000000000002E-9</v>
+      </c>
+      <c r="O22" s="1">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>5.2736000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>158</v>
+      </c>
+      <c r="R22" s="1">
+        <v>7170000</v>
+      </c>
+      <c r="S22" s="1">
+        <v>4830000</v>
+      </c>
+      <c r="T22">
+        <v>19567.400000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="V22" s="1">
+        <v>5.3400000000000002E-9</v>
+      </c>
+      <c r="W22">
+        <v>112.023</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>276</v>
+      </c>
+      <c r="D23">
+        <v>965</v>
+      </c>
+      <c r="E23">
+        <v>2298</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>116</v>
+      </c>
+      <c r="J23">
+        <v>886</v>
+      </c>
+      <c r="K23">
+        <v>3539</v>
+      </c>
+      <c r="L23">
+        <v>23</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.4899999999999999E-8</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="O23" s="1">
+        <v>200</v>
+      </c>
+      <c r="P23">
+        <v>5.5254899999999996</v>
+      </c>
+      <c r="Q23">
+        <v>125</v>
+      </c>
+      <c r="R23" s="1">
+        <v>7840000</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5320000</v>
+      </c>
+      <c r="T23">
+        <v>19520.400000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1.0600000000000001E-8</v>
+      </c>
+      <c r="W23">
+        <v>144.196</v>
+      </c>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>828</v>
+      </c>
+      <c r="D24">
+        <v>3011</v>
+      </c>
+      <c r="E24">
+        <v>6894</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>116</v>
+      </c>
+      <c r="J24">
+        <v>2658</v>
+      </c>
+      <c r="K24">
+        <v>10733</v>
+      </c>
+      <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.9499999999999999E-8</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.07E-8</v>
+      </c>
+      <c r="O24" s="1">
+        <v>200</v>
+      </c>
+      <c r="P24">
+        <v>5.8223399999999996</v>
+      </c>
+      <c r="Q24">
+        <v>358</v>
+      </c>
+      <c r="R24" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="S24" s="1">
+        <v>16100000</v>
+      </c>
+      <c r="T24">
+        <v>19165.900000000001</v>
+      </c>
+      <c r="U24">
+        <v>0.2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1.11E-8</v>
+      </c>
+      <c r="W24">
+        <v>525.14499999999998</v>
+      </c>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>502</v>
+      </c>
+      <c r="E25">
+        <v>829</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1397</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25" s="1">
+        <v>4.56E-9</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3.8099999999999999E-9</v>
+      </c>
+      <c r="O25" s="1">
+        <v>200</v>
+      </c>
+      <c r="P25">
+        <v>4.93</v>
+      </c>
+      <c r="Q25">
+        <v>66</v>
+      </c>
+      <c r="R25" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="S25" s="1">
+        <v>2070000</v>
+      </c>
+      <c r="T25">
+        <v>20192</v>
+      </c>
+      <c r="U25">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="V25" s="1">
+        <v>4.0899999999999997E-9</v>
+      </c>
+      <c r="W25">
+        <v>35.738999999999997</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>198</v>
+      </c>
+      <c r="D26">
+        <v>1520</v>
+      </c>
+      <c r="E26">
+        <v>2487</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>4205</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1">
+        <v>6.5000000000000003E-9</v>
+      </c>
+      <c r="N26" s="1">
+        <v>5.0499999999999997E-9</v>
+      </c>
+      <c r="O26" s="1">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>5.4620199999999999</v>
+      </c>
+      <c r="Q26">
+        <v>177</v>
+      </c>
+      <c r="R26" s="1">
+        <v>8530000</v>
+      </c>
+      <c r="S26" s="1">
+        <v>6240000</v>
+      </c>
+      <c r="T26">
+        <v>19673.8</v>
+      </c>
+      <c r="U26">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="V26" s="1">
+        <v>5.0600000000000003E-9</v>
+      </c>
+      <c r="W26">
+        <v>136.96100000000001</v>
+      </c>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>979</v>
+      </c>
+      <c r="E27">
+        <v>3512</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>4575</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27" s="1">
+        <v>7.6000000000000002E-9</v>
+      </c>
+      <c r="N27" s="1">
+        <v>5.5999999999999997E-9</v>
+      </c>
+      <c r="O27" s="1">
+        <v>200</v>
+      </c>
+      <c r="P27">
+        <v>7.2179200000000003</v>
+      </c>
+      <c r="Q27">
+        <v>144</v>
+      </c>
+      <c r="R27" s="1">
+        <v>9260000</v>
+      </c>
+      <c r="S27" s="1">
+        <v>6780000</v>
+      </c>
+      <c r="T27">
+        <v>19632.2</v>
+      </c>
+      <c r="U27">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="V27" s="1">
+        <v>5.7299999999999999E-9</v>
+      </c>
+      <c r="W27">
+        <v>167.232</v>
+      </c>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>252</v>
+      </c>
+      <c r="D28">
+        <v>2977</v>
+      </c>
+      <c r="E28">
+        <v>10536</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>13765</v>
+      </c>
+      <c r="L28">
+        <v>44</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.16E-8</v>
+      </c>
+      <c r="N28" s="1">
+        <v>7.4099999999999998E-9</v>
+      </c>
+      <c r="O28" s="1">
+        <v>200</v>
+      </c>
+      <c r="P28">
+        <v>7.5133900000000002</v>
+      </c>
+      <c r="Q28">
+        <v>352</v>
+      </c>
+      <c r="R28" s="1">
+        <v>28700000</v>
+      </c>
+      <c r="S28" s="1">
+        <v>20400000</v>
+      </c>
+      <c r="T28">
+        <v>19088</v>
+      </c>
+      <c r="U28">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="V28" s="1">
+        <v>7.6199999999999997E-9</v>
+      </c>
+      <c r="W28">
+        <v>711.15499999999997</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>172</v>
+      </c>
+      <c r="D29">
+        <v>432</v>
+      </c>
+      <c r="E29">
+        <v>1326</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>1930</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+      <c r="M29" s="1">
+        <v>9.9300000000000002E-9</v>
+      </c>
+      <c r="N29" s="1">
+        <v>7.8899999999999998E-9</v>
+      </c>
+      <c r="O29" s="1">
+        <v>200</v>
+      </c>
+      <c r="P29">
+        <v>4.7679400000000003</v>
+      </c>
+      <c r="Q29">
+        <v>99</v>
+      </c>
+      <c r="R29" s="1">
+        <v>4280000</v>
+      </c>
+      <c r="S29" s="1">
+        <v>2870000</v>
+      </c>
+      <c r="T29">
+        <v>20028.400000000001</v>
+      </c>
+      <c r="U29">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="V29" s="1">
+        <v>8.0399999999999995E-9</v>
+      </c>
+      <c r="W29">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>516</v>
+      </c>
+      <c r="D30">
+        <v>1302</v>
+      </c>
+      <c r="E30">
+        <v>3978</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <v>5796</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.27E-8</v>
+      </c>
+      <c r="N30" s="1">
+        <v>8.4399999999999998E-9</v>
+      </c>
+      <c r="O30" s="1">
+        <v>200</v>
+      </c>
+      <c r="P30">
+        <v>4.8377699999999999</v>
+      </c>
+      <c r="Q30">
+        <v>252</v>
+      </c>
+      <c r="R30" s="1">
+        <v>12500000</v>
+      </c>
+      <c r="S30" s="1">
+        <v>8610000</v>
+      </c>
+      <c r="T30">
+        <v>19307</v>
+      </c>
+      <c r="U30">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="V30" s="1">
+        <v>8.6499999999999997E-9</v>
+      </c>
+      <c r="W30">
+        <v>185.16900000000001</v>
+      </c>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>68</v>
+      </c>
+      <c r="C31">
+        <v>291</v>
+      </c>
+      <c r="D31">
+        <v>2508</v>
+      </c>
+      <c r="E31">
+        <v>3175</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>106</v>
+      </c>
+      <c r="J31">
+        <v>1463</v>
+      </c>
+      <c r="K31">
+        <v>6042</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.02E-8</v>
+      </c>
+      <c r="N31" s="1">
+        <v>5.7699999999999997E-9</v>
+      </c>
+      <c r="O31" s="1">
+        <v>200</v>
+      </c>
+      <c r="P31">
+        <v>3.5397400000000001</v>
+      </c>
+      <c r="Q31">
+        <v>136</v>
+      </c>
+      <c r="R31" s="1">
+        <v>13300000</v>
+      </c>
+      <c r="S31" s="1">
+        <v>9420000</v>
+      </c>
+      <c r="T31">
+        <v>19366.400000000001</v>
+      </c>
+      <c r="U31">
+        <v>0.125</v>
+      </c>
+      <c r="V31" s="1">
+        <v>6.3199999999999997E-9</v>
+      </c>
+      <c r="W31">
+        <v>241.471</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>204</v>
+      </c>
+      <c r="C32">
+        <v>873</v>
+      </c>
+      <c r="D32">
+        <v>7630</v>
+      </c>
+      <c r="E32">
+        <v>9525</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>29</v>
+      </c>
+      <c r="I32">
+        <v>106</v>
+      </c>
+      <c r="J32">
+        <v>4389</v>
+      </c>
+      <c r="K32">
+        <v>18232</v>
+      </c>
+      <c r="L32">
+        <v>51</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.39E-8</v>
+      </c>
+      <c r="N32" s="1">
+        <v>6.24E-9</v>
+      </c>
+      <c r="O32" s="1">
+        <v>200</v>
+      </c>
+      <c r="P32">
+        <v>3.7855699999999999</v>
+      </c>
+      <c r="Q32">
+        <v>157</v>
+      </c>
+      <c r="R32" s="1">
+        <v>38500000</v>
+      </c>
+      <c r="S32" s="1">
+        <v>28400000</v>
+      </c>
+      <c r="T32">
+        <v>19025.400000000001</v>
+      </c>
+      <c r="U32">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="V32" s="1">
+        <v>6.72E-9</v>
+      </c>
+      <c r="W32">
+        <v>942.7</v>
+      </c>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>1600</v>
+      </c>
+      <c r="D33">
+        <v>1167</v>
+      </c>
+      <c r="E33">
+        <v>3389</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>304</v>
+      </c>
+      <c r="J33">
+        <v>1260</v>
+      </c>
+      <c r="K33">
+        <v>6177</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33" s="1">
+        <v>7.3499999999999996E-9</v>
+      </c>
+      <c r="N33" s="1">
+        <v>4.6500000000000003E-9</v>
+      </c>
+      <c r="O33" s="1">
+        <v>200</v>
+      </c>
+      <c r="P33">
+        <v>3.6766200000000002</v>
+      </c>
+      <c r="Q33">
+        <v>284</v>
+      </c>
+      <c r="R33" s="1">
+        <v>13300000</v>
+      </c>
+      <c r="S33" s="1">
+        <v>9540000</v>
+      </c>
+      <c r="T33">
+        <v>19366.400000000001</v>
+      </c>
+      <c r="U33">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="V33" s="1">
+        <v>4.8499999999999996E-9</v>
+      </c>
+      <c r="W33">
+        <v>263.31299999999999</v>
+      </c>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>4800</v>
+      </c>
+      <c r="D34">
+        <v>3805</v>
+      </c>
+      <c r="E34">
+        <v>10167</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>38</v>
+      </c>
+      <c r="I34">
+        <v>304</v>
+      </c>
+      <c r="J34">
+        <v>3780</v>
+      </c>
+      <c r="K34">
+        <v>18835</v>
+      </c>
+      <c r="L34">
+        <v>52</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="N34" s="1">
+        <v>6.3000000000000002E-9</v>
+      </c>
+      <c r="O34" s="1">
+        <v>200</v>
+      </c>
+      <c r="P34">
+        <v>4.3633800000000003</v>
+      </c>
+      <c r="Q34">
+        <v>754</v>
+      </c>
+      <c r="R34" s="1">
+        <v>40100000</v>
+      </c>
+      <c r="S34" s="1">
+        <v>29000000</v>
+      </c>
+      <c r="T34">
+        <v>18996.099999999999</v>
+      </c>
+      <c r="U34">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="V34" s="1">
+        <v>6.3700000000000001E-9</v>
+      </c>
+      <c r="W34">
+        <v>1199.3900000000001</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>129</v>
+      </c>
+      <c r="D35">
+        <v>584</v>
+      </c>
+      <c r="E35">
+        <v>1037</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>35</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1750</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35" s="1">
+        <v>4.7799999999999996E-9</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3.8799999999999998E-9</v>
+      </c>
+      <c r="O35" s="1">
+        <v>200</v>
+      </c>
+      <c r="P35">
+        <v>5.3133299999999997</v>
+      </c>
+      <c r="Q35">
+        <v>82</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3790000</v>
+      </c>
+      <c r="S35" s="1">
+        <v>2590000</v>
+      </c>
+      <c r="T35">
+        <v>20116.5</v>
+      </c>
+      <c r="U35">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V35" s="1">
+        <v>3.9499999999999998E-9</v>
+      </c>
+      <c r="W35">
+        <v>50.624000000000002</v>
+      </c>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>387</v>
+      </c>
+      <c r="D36">
+        <v>1787</v>
+      </c>
+      <c r="E36">
+        <v>3111</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>41</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>5285</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36" s="1">
+        <v>6.8400000000000004E-9</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5.04E-9</v>
+      </c>
+      <c r="O36" s="1">
+        <v>200</v>
+      </c>
+      <c r="P36">
+        <v>6.2372500000000004</v>
+      </c>
+      <c r="Q36">
+        <v>233</v>
+      </c>
+      <c r="R36" s="1">
+        <v>10800000</v>
+      </c>
+      <c r="S36" s="1">
+        <v>7840000</v>
+      </c>
+      <c r="T36">
+        <v>19400</v>
+      </c>
+      <c r="U36">
+        <v>0.192</v>
+      </c>
+      <c r="V36" s="1">
+        <v>5.1899999999999997E-9</v>
+      </c>
+      <c r="W36">
+        <v>184.46700000000001</v>
+      </c>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>892</v>
+      </c>
+      <c r="E37">
+        <v>2745</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
+      <c r="I37">
+        <v>46</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>3690</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37" s="1">
+        <v>6.9100000000000003E-9</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5.1199999999999997E-9</v>
+      </c>
+      <c r="O37" s="1">
+        <v>200</v>
+      </c>
+      <c r="P37">
+        <v>6.4478600000000004</v>
+      </c>
+      <c r="Q37">
+        <v>96</v>
+      </c>
+      <c r="R37" s="1">
+        <v>7840000</v>
+      </c>
+      <c r="S37" s="1">
+        <v>5470000</v>
+      </c>
+      <c r="T37">
+        <v>19520.400000000001</v>
+      </c>
+      <c r="U37">
+        <v>0.188</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5.2599999999999996E-9</v>
+      </c>
+      <c r="W37">
+        <v>122.31100000000001</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>159</v>
+      </c>
+      <c r="D38">
+        <v>2722</v>
+      </c>
+      <c r="E38">
+        <v>8235</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>46</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>11116</v>
+      </c>
+      <c r="L38">
+        <v>39</v>
+      </c>
+      <c r="M38" s="1">
+        <v>9.7800000000000006E-9</v>
+      </c>
+      <c r="N38" s="1">
+        <v>6.4300000000000003E-9</v>
+      </c>
+      <c r="O38" s="1">
+        <v>200</v>
+      </c>
+      <c r="P38">
+        <v>6.7537700000000003</v>
+      </c>
+      <c r="Q38">
+        <v>321</v>
+      </c>
+      <c r="R38" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="S38" s="1">
+        <v>16500000</v>
+      </c>
+      <c r="T38">
+        <v>19165.900000000001</v>
+      </c>
+      <c r="U38">
+        <v>0.222</v>
+      </c>
+      <c r="V38" s="1">
+        <v>6.5700000000000003E-9</v>
+      </c>
+      <c r="W38">
+        <v>496.416</v>
+      </c>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>132</v>
+      </c>
+      <c r="D39">
+        <v>283</v>
+      </c>
+      <c r="E39">
+        <v>631</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>52</v>
+      </c>
+      <c r="I39">
+        <v>122</v>
+      </c>
+      <c r="J39">
+        <v>385</v>
+      </c>
+      <c r="K39">
+        <v>1046</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7.1200000000000002E-9</v>
+      </c>
+      <c r="N39" s="1">
+        <v>5.8100000000000004E-9</v>
+      </c>
+      <c r="O39" s="1">
+        <v>200</v>
+      </c>
+      <c r="P39">
+        <v>3.0421200000000002</v>
+      </c>
+      <c r="Q39">
+        <v>53</v>
+      </c>
+      <c r="R39" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1590000</v>
+      </c>
+      <c r="T39">
+        <v>20337.5</v>
+      </c>
+      <c r="U39">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="V39" s="1">
+        <v>6.2199999999999996E-9</v>
+      </c>
+      <c r="W39">
+        <v>30.561</v>
+      </c>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>396</v>
+      </c>
+      <c r="D40">
+        <v>971</v>
+      </c>
+      <c r="E40">
+        <v>1893</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>52</v>
+      </c>
+      <c r="I40">
+        <v>122</v>
+      </c>
+      <c r="J40">
+        <v>1155</v>
+      </c>
+      <c r="K40">
+        <v>3260</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40" s="1">
+        <v>8.5500000000000005E-9</v>
+      </c>
+      <c r="N40" s="1">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="O40" s="1">
+        <v>200</v>
+      </c>
+      <c r="P40">
+        <v>3.8246500000000001</v>
+      </c>
+      <c r="Q40">
+        <v>116</v>
+      </c>
+      <c r="R40" s="1">
+        <v>7170000</v>
+      </c>
+      <c r="S40" s="1">
+        <v>4900000</v>
+      </c>
+      <c r="T40">
+        <v>19567.400000000001</v>
+      </c>
+      <c r="U40">
+        <v>0.125</v>
+      </c>
+      <c r="V40" s="1">
+        <v>6.0799999999999997E-9</v>
+      </c>
+      <c r="W40">
+        <v>118.583</v>
+      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>